--- a/data/dataThongtinhanghoa_case8.xlsx
+++ b/data/dataThongtinhanghoa_case8.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>Soluong</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>100000</t>
+  </si>
+  <si>
+    <t>Xoa</t>
   </si>
 </sst>
 </file>
@@ -436,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -452,7 +455,7 @@
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -471,8 +474,11 @@
       <c r="F1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -492,7 +498,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -512,7 +518,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -532,7 +538,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -552,7 +558,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -572,7 +578,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -592,7 +598,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -612,7 +618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -632,7 +638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -652,7 +658,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -672,7 +678,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -692,25 +698,25 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
